--- a/script/DeepSTL_convert/autoware_docs/autoware_behavior_velocity_traffic_light/result.xlsx
+++ b/script/DeepSTL_convert/autoware_docs/autoware_behavior_velocity_traffic_light/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13160"/>
+    <workbookView windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
   <si>
     <t>index</t>
   </si>
@@ -71,6 +71,9 @@
     <t>G(T → A) captures the continuous nature of this rule. T represents the presence of a traffic light in the ego lane, and A represents the module's activation. The formula states that globally (at all times), if there's a traffic light (T), then the module is activated (A). This ensures the module responds immediately to the presence of traffic lights.</t>
   </si>
   <si>
+    <t>{'section-id': 2, 'sentence-id': 0, 'sentence': 'This module is activated when there is traffic light in ego lane.', 'tl': 'always ( Thismodule == activated )'}</t>
+  </si>
+  <si>
     <t>expected post action</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>G(¬F(S) → P) expresses that if a signal is never found, it's treated as a pass signal. Here, S represents finding a signal, and P represents treating it as a pass signal. The ¬F(S) part ensures that S never occurs in the future, and if this condition holds globally (G), then it's treated as a pass signal (P).</t>
   </si>
   <si>
+    <t>{'section-id': 3, 'sentence-id': 1, 'sentence': 'If a corresponding traffic light signal have never been found, it treats as a signal to pass.', 'tl': 'always ( not ( acorespondingtrafficli == foundight ) -&gt; founditreatsa == passs )'}</t>
+  </si>
+  <si>
     <t>If a corresponding traffic light signal is found but timed out, it treats as a signal to stop.</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
     <t>G((F ∧ X(T)) → S) models the timeout scenario. F represents finding a signal, T represents the signal timing out, and S represents treating it as a stop signal. The X operator ensures that the timeout occurs immediately after finding the signal. If this condition is met at any point (hence the G operator), it's treated as a stop signal.</t>
   </si>
   <si>
+    <t>{'section-id': 3, 'sentence-id': 2, 'sentence': 'If a corresponding traffic light signal is found but timed out, it treats as a signal to stop.', 'tl': 'always ( acorespondingtra == fficlightfounduti == timedutid )'}</t>
+  </si>
+  <si>
     <t>Uses the highest reliability one of the traffic light recognition result and if the color of that was not green or corresponding arrow signal, generates a stop point.</t>
   </si>
   <si>
@@ -101,6 +110,9 @@
     <t>G((H ∧ ¬(G ∨ A)) → S) captures the decision process. H represents the highest reliability recognition, G represents a green light, A represents an arrow signal, and S represents generating a stop point. The formula states that globally, if we have the highest reliability result (H) and it's not green or an arrow (¬(G ∨ A)), then generate a stop point (S).</t>
   </si>
   <si>
+    <t>{'section-id': 3, 'sentence-id': 3, 'sentence': '2.Uses the highest reliability one of the traffic light recognition result and if the color of that was not green or corresponding arrow signal, generates a stop point.', 'tl': 'always ( eshighestre == liabitrficlghtre ) and not ( conre == greolencorspondnrenro ) -&gt; not ( core == gresonrepodnrone ) or aroger == geraroerareneraerseneratesasaser )'}</t>
+  </si>
+  <si>
     <t>If an elapsed time to receive stop signal is less than `stop_time_hysteresis`, it treats as a signal to pass.</t>
   </si>
   <si>
@@ -110,6 +122,9 @@
     <t>G((R ∧ ¬X(H)) → P) models the hysteresis condition. R represents receiving a stop signal, H represents the hysteresis time elapsing, and P represents treating it as a pass signal. The formula states that globally, if we receive a stop signal (R) and the hysteresis time doesn't elapse in the next state (¬X(H)), then treat it as a pass signal (P)</t>
   </si>
   <si>
+    <t>{'section-id': 3, 'sentence-id': 4, 'sentence': 'If an elapsed time to receive stop signal is less than stop_time_hysteresis, it treats as a signal to pass.', 'tl': 'always ( an == receivestSst )'}</t>
+  </si>
+  <si>
     <t>When vehicle current velocity is</t>
   </si>
   <si>
@@ -119,6 +134,10 @@
     <t>G((H → P) ∧ (L → S)) captures the velocity-based decision. H represents velocity higher than 2.0m/s, L represents velocity lower than 2.0m/s, P represents pass judgment, and S represents stop. The formula globally applies both conditions: high velocity implies pass, low velocity implies stop.</t>
   </si>
   <si>
+    <t>{'section-id': 3, 'sentence-id': 7, 'sentence': 'higher than 2.0m/s ⇒ pass judge(using next slide formula)', 'tl': 'always [ 0 : 2.0 mspasjudge &gt; 2.0 and mspasjudge &lt; singlideformula &gt; 2 and lsing = lidedeformula &lt; a )'}
+{'section-id': 3, 'sentence-id': 8, 'sentence': 'lower than 2.0m/s ⇒ stop', 'tl': 'always ( msstop &lt; 2.0 or mssstop &lt; 2.0 )'}</t>
+  </si>
+  <si>
     <t>higher than 2.0m/s ⇒ pass judge(using next slide formula)</t>
   </si>
   <si>
@@ -134,6 +153,23 @@
     <t>G(C → ((P → A) ∧ (¬P → E))) models the decision process when the vehicle can't stop. C represents the condition of not being able to stop, P represents the ability to pass through during yellow, A represents choosing to pass, and E represents emergency stop. The formula globally applies this complex decision logic.</t>
   </si>
   <si>
+    <t>{'section-id': 3, 'sentence-id': 10, 'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'tl': 'always ( canpsthroughstopline == yellowlamp )'}
+{'section-id': 3, 'sentence-id': 11, 'sentence': '"can’t pass through" stop line during yellow lamp =&gt; emergency stop', 'tl': 'always ( cantpsthrogh == stoplineylelowlampem == ememrgerncystop )'}
+{'section-id': 4, 'sentence-id': 4, 'sentence': 'vehicle can’t pass through stop line during yellow lamp.(right side of the yellow lamp line)', 'tl': 'always ( vehiclecantpst == sthroghstoplineylelowlamp )'}
+{'section-id': 4, 'sentence-id': 8, 'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'tl': 'always ( fall ( vehiclecanpststhro == ghstolineylelowlamp ) and fall ( sidelelowlampl == lelowlampl ) -&gt; not ( sideylelowlamlplinelampline &lt; amle ) )'}</t>
+  </si>
+  <si>
+    <t>{'section-id': 3, 'sentence-id': 9, 'sentence': '4.When it to be judged that vehicle can’t stop before stop line, autoware chooses one of the following behaviors', 'tl': 'always ( it == judgededvehiclecantstopline )'}
+{'section-id': 3, 'sentence-id': 10, 'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'tl': 'always ( canpsthroughstopline == yellowlamp )'}
+{'section-id': 3, 'sentence-id': 11, 'sentence': '"can’t pass through" stop line during yellow lamp =&gt; emergency stop', 'tl': 'always ( cantpsthrogh == stoplineylelowlampem == ememrgerncystop )'}</t>
+  </si>
+  <si>
+    <t>{'section-id': 3, 'sentence-id': 10, 'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'tl': 'always ( canpsthroughstopline == yellowlamp )'}
+{'section-id': 3, 'sentence-id': 11, 'sentence': '"can’t pass through" stop line during yellow lamp =&gt; emergency stop', 'tl': 'always ( cantpsthrogh == stoplineylelowlampem == ememrgerncystop )'}
+{'section-id': 4, 'sentence-id': 8, 'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'tl': 'always ( fall ( vehiclecanpststhro == ghstolineylelowlamp ) and fall ( sidelelowlampl == lelowlampl ) -&gt; not ( sideylelowlamlplinelampline &lt; amle ) )'}
+{'section-id': 4, 'sentence-id': 4, 'sentence': 'vehicle can’t pass through stop line during yellow lamp.(right side of the yellow lamp line)', 'tl': 'always ( vehiclecantpst == sthroghstoplineylelowlamp )'}</t>
+  </si>
+  <si>
     <t>"can pass through" stop line during yellow lamp =&gt; pass</t>
   </si>
   <si>
@@ -152,6 +188,9 @@
     <t>G((¬S ∧ L) → E) captures the emergency stop scenario. ¬S represents the inability to stop under normal limits, L represents being on the left side of the pass judge curve, and E represents emergency stop. The formula globally applies this rule, relaxing limitations to ensure regulatory compliance.</t>
   </si>
   <si>
+    <t>{'section-id': 4, 'sentence-id': 5, 'sentence': 'vehicle can’t stop under deceleration and jerk limit.(left side of the pass judge curve)⇒emergency stop(relax deceleration and jerk limitation in order to observe the traffic regulation)', 'tl': 'always ( fall ( ehiclecantst == tSerderdeceratinio ) and ( jedersjlimimt &gt; 4 . and jedersjlilim &lt; seuredecu &lt; 1 emerelemlerleax = reaxeleaxerlea = rleaxelerleatoderle ) -&gt; ( erea == erleaxerleratierlerlea = erlerle'}</t>
+  </si>
+  <si>
     <t>66-68</t>
   </si>
   <si>
@@ -164,52 +203,13 @@
     <t>G((S ∧ R) → T) models the safe stop scenario. S represents the ability to stop under normal limits, R represents being on the right side of the pass judge curve, and T represents choosing to stop. This formula globally enforces the safety-first approach when stopping is feasible within normal limits.</t>
   </si>
   <si>
+    <t>{'section-id': 4, 'sentence-id': 9, 'sentence': 'vehicle can stop under deceleration and jerk limit.(right side of the pass judge curve) ⇒ stop(autoware selects the safety choice)', 'tl': 'always ( vehiclecanstopuderde == erdecleration and ( jederklimit &gt; 6 . and jederklimi &lt; sjudecursjedgecurst &lt; 1 ) -&gt; ( estpopau &gt; autpo &lt; tuteautwaesectsectse = tsafethcelhoicececesaetsa == tsae ) and ehaehcetece'}</t>
+  </si>
+  <si>
     <t>{'section-id': 1, 'sentence-id': 1, 'sentence': 'Due to the property of rule-based planning, the algorithm is greatly depends on object detection and perception accuracy considering traffic light.', 'tl': 'always ( uepropertyrle == Sgasedngolahgrithmgrea == Stledepectde ) and sectdeptinc == teprceptinconcuacepeincuracuracosinc == cosie )'}</t>
   </si>
   <si>
-    <t>{'section-id': 4, 'sentence-id': 4, 'sentence': 'vehicle can’t pass through stop line during yellow lamp.(right side of the yellow lamp line)', 'tl': 'always ( vehiclecantpst == sthroghstoplineylelowlamp )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 4, 'sentence-id': 8, 'sentence': 'vehicle can pass through stop line during yellow lamp.(left side of the yellow lamp line)', 'tl': 'always ( fall ( vehiclecanpststhro == ghstolineylelowlamp ) and fall ( sidelelowlampl == lelowlampl ) -&gt; not ( sideylelowlamlplinelampline &lt; amle ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 0, 'sentence': 'This module is activated when there is traffic light in ego lane.', 'tl': 'always ( Thismodule == activated )'}</t>
-  </si>
-  <si>
     <t>{'section-id': 3, 'sentence-id': 0, 'sentence': '1.Obtains a traffic light mapped to the route and a stop line correspond to the traffic light from a map information.', 'tl': 'always ( Obtainsatrafic == ightmaped = rote and astoplinecorespond == traficeresporespond )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 3, 'sentence-id': 1, 'sentence': 'If a corresponding traffic light signal have never been found, it treats as a signal to pass.', 'tl': 'always ( not ( acorespondingtrafficli == foundight ) -&gt; founditreatsa == passs )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 3, 'sentence-id': 2, 'sentence': 'If a corresponding traffic light signal is found but timed out, it treats as a signal to stop.', 'tl': 'always ( acorespondingtra == fficlightfounduti == timedutid )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 3, 'sentence-id': 3, 'sentence': '2.Uses the highest reliability one of the traffic light recognition result and if the color of that was not green or corresponding arrow signal, generates a stop point.', 'tl': 'always ( eshighestre == liabitrficlghtre ) and not ( conre == greolencorspondnrenro ) -&gt; not ( core == gresonrepodnrone ) or aroger == geraroerareneraerseneratesasaser )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 3, 'sentence-id': 4, 'sentence': 'If an elapsed time to receive stop signal is less than stop_time_hysteresis, it treats as a signal to pass.', 'tl': 'always ( an == receivestSst )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 3, 'sentence-id': 7, 'sentence': 'higher than 2.0m/s ⇒ pass judge(using next slide formula)', 'tl': 'always [ 0 : 2.0 mspasjudge &gt; 2.0 and mspasjudge &lt; singlideformula &gt; 2 and lsing = lidedeformula &lt; a )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 3, 'sentence-id': 8, 'sentence': 'lower than 2.0m/s ⇒ stop', 'tl': 'always ( msstop &lt; 2.0 or mssstop &lt; 2.0 )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 3, 'sentence-id': 9, 'sentence': '4.When it to be judged that vehicle can’t stop before stop line, autoware chooses one of the following behaviors', 'tl': 'always ( it == judgededvehiclecantstopline )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 3, 'sentence-id': 10, 'sentence': '"can pass through" stop line during yellow lamp =&gt; pass', 'tl': 'always ( canpsthroughstopline == yellowlamp )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 3, 'sentence-id': 11, 'sentence': '"can’t pass through" stop line during yellow lamp =&gt; emergency stop', 'tl': 'always ( cantpsthrogh == stoplineylelowlampem == ememrgerncystop )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 4, 'sentence-id': 5, 'sentence': 'vehicle can’t stop under deceleration and jerk limit.(left side of the pass judge curve)⇒emergency stop(relax deceleration and jerk limitation in order to observe the traffic regulation)', 'tl': 'always ( fall ( ehiclecantst == tSerderdeceratinio ) and ( jedersjlimimt &gt; 4 . and jedersjlilim &lt; seuredecu &lt; 1 emerelemlerleax = reaxeleaxerlea = rleaxelerleatoderle ) -&gt; ( erea == erleaxerleratierlerlea = erlerle'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 4, 'sentence-id': 9, 'sentence': 'vehicle can stop under deceleration and jerk limit.(right side of the pass judge curve) ⇒ stop(autoware selects the safety choice)', 'tl': 'always ( vehiclecanstopuderde == erdecleration and ( jederklimit &gt; 6 . and jederklimi &lt; sjudecursjedgecurst &lt; 1 ) -&gt; ( estpopau &gt; autpo &lt; tuteautwaesectsectse = tsafethcelhoicececesaetsa == tsae ) and ehaehcetece'}</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +233,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -707,155 +700,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1203,10 +1199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1271,14 +1267,23 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1286,26 +1291,35 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
       <c r="L3">
         <v>1</v>
       </c>
@@ -1315,28 +1329,37 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1344,28 +1367,37 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1373,66 +1405,75 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="60" customHeight="1" spans="1:12">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1440,13 +1481,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -1469,13 +1510,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1493,39 +1534,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" ht="48" customHeight="1" spans="1:12">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1533,13 +1577,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -1562,13 +1606,13 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -1591,28 +1635,37 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1620,31 +1673,40 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1666,16 +1728,9 @@
       <c r="G15" t="s">
         <v>7</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15"/>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15"/>
-      <c r="L15">
-        <v>1</v>
+        <f>COUNTIF(J2:J14,0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1754,7 +1809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1774,25 +1829,13 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1811,23 +1854,9 @@
       <c r="F19" t="s">
         <v>7</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
+        <f>COUNTIF(H2:H18,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1849,257 +1878,17 @@
       <c r="F20" t="s">
         <v>7</v>
       </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="7:12">
-      <c r="G21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12">
       <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="7:12">
-      <c r="G22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="7:12">
-      <c r="G23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="7:12">
-      <c r="G24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="7:12">
-      <c r="G25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="7:12">
-      <c r="G26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="7:12">
-      <c r="G27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="7:12">
-      <c r="G28" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="7:12">
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="7:12">
-      <c r="G30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>59</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="7:12">
-      <c r="G31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>60</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>60</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="8:12">
-      <c r="H32">
-        <f>SUM(H18:H31)</f>
-        <v>14</v>
-      </c>
-      <c r="J32">
-        <f>SUM(J18:J31)</f>
-        <v>14</v>
-      </c>
-      <c r="L32">
-        <f>SUM(L18:L31)</f>
-        <v>14</v>
+        <f>COUNTIF(L2:L20,0)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
